--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_36.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2373978.449892685</v>
+        <v>2434396.806104306</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484442</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5278072.303007796</v>
+        <v>5339736.540628293</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>149.3109184572283</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>286.2721000371766</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -835,7 +835,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>176.8261804106933</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>209.5867542297959</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>73.53975505976769</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>413.9084965609379</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1060,7 +1060,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1072,7 +1072,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>166.8316574011737</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>154.9861715906662</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1133,13 +1133,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>320.0331481255878</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>105.6633540292544</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1300,16 +1300,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>111.5098183264943</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>8.129390960577833</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>71.84692347866485</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1531,7 +1531,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>161.7725533806637</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1582,7 +1582,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>236.8407971234392</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>86.91406253606259</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1822,7 +1822,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1895,7 +1895,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -1907,7 +1907,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>236.5559091716756</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225747</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2087,7 +2087,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2138,7 +2138,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655108</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>136.0564930767001</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>103.8284742946039</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3436,7 +3436,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>24.3431845617052</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3676,7 +3676,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>155.2022955251537</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3724,7 +3724,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571955</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3803,7 +3803,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>325.3350356666683</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3901,19 +3901,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>169.3086501403037</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -3958,10 +3958,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>221.3930136939167</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3980,7 +3980,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>381.8187305775014</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>13.99728392830434</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>1072.077256853988</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>643.4955825912566</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>214.9139083285249</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>185.1795675272242</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4340,13 +4340,13 @@
         <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
+        <v>874.0494664914149</v>
+      </c>
+      <c r="O2" t="n">
+        <v>874.0494664914149</v>
+      </c>
+      <c r="P2" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4358,22 +4358,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V2" t="n">
-        <v>1408.019692669128</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="W2" t="n">
-        <v>1003.164238080161</v>
+        <v>1113.68420233872</v>
       </c>
       <c r="X2" t="n">
-        <v>584.0217746594717</v>
+        <v>1098.582142958435</v>
       </c>
       <c r="Y2" t="n">
-        <v>175.7356509591251</v>
+        <v>1094.336423298492</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4410,19 +4410,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1024.341879988165</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>688.8848573262783</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>1108.937756271182</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N4" t="n">
-        <v>1528.990655216085</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V4" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="W4" t="n">
-        <v>1497.153305340644</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="X4" t="n">
-        <v>1251.761550674057</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="Y4" t="n">
-        <v>1024.341879988165</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1343.515716940192</v>
+        <v>965.6253987944318</v>
       </c>
       <c r="C5" t="n">
-        <v>914.93404267746</v>
+        <v>931.5233300182592</v>
       </c>
       <c r="D5" t="n">
-        <v>486.3523684147282</v>
+        <v>899.6539492331078</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>869.9196084318071</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>451.8302179662132</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720797</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2178.745152974708</v>
       </c>
       <c r="V5" t="n">
-        <v>1437.961127397434</v>
+        <v>1816.128202908534</v>
       </c>
       <c r="W5" t="n">
-        <v>1437.146076848872</v>
+        <v>1411.272748319567</v>
       </c>
       <c r="X5" t="n">
-        <v>1422.044017468586</v>
+        <v>992.1302848988781</v>
       </c>
       <c r="Y5" t="n">
-        <v>1417.798297808644</v>
+        <v>987.8845652389356</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993469</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>401.054384716147</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>431.6596472970919</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>854.5838762389023</v>
+        <v>1129.490547201358</v>
       </c>
       <c r="C7" t="n">
-        <v>682.0221647221273</v>
+        <v>956.9288356845833</v>
       </c>
       <c r="D7" t="n">
-        <v>516.14417192365</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="T7" t="n">
-        <v>1675.765608785789</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="U7" t="n">
-        <v>1675.765608785789</v>
+        <v>2353.102503816103</v>
       </c>
       <c r="V7" t="n">
-        <v>1675.765608785789</v>
+        <v>2066.146995686534</v>
       </c>
       <c r="W7" t="n">
-        <v>1519.213920310369</v>
+        <v>1794.120591272825</v>
       </c>
       <c r="X7" t="n">
-        <v>1273.822165643781</v>
+        <v>1548.728836606237</v>
       </c>
       <c r="Y7" t="n">
-        <v>1046.40249495789</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>442.6402219259112</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>2326.371599383719</v>
       </c>
       <c r="X8" t="n">
-        <v>1277.225916111166</v>
+        <v>2219.640938748108</v>
       </c>
       <c r="Y8" t="n">
-        <v>868.939792410819</v>
+        <v>1811.354815047761</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1024.341879988165</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C10" t="n">
-        <v>851.7801684713901</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="D10" t="n">
-        <v>685.9021756729128</v>
+        <v>424.4553496309879</v>
       </c>
       <c r="E10" t="n">
-        <v>516.14417192365</v>
+        <v>254.6973458817252</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>761.43086230084</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1181.483761245743</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W10" t="n">
-        <v>1688.971924059632</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1443.580169393044</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y10" t="n">
-        <v>1216.160498707152</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.263962614635</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111519</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>403.2461837293691</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1237.596475687547</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2312.656441940406</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940406</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940406</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510713</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302703</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.798834055759</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4616.731606928798</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.158956950349</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.542006884175</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3776.686552295208</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.544088874519</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.257965174172</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1084.662814845622</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C13" t="n">
-        <v>912.1011033288476</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D13" t="n">
-        <v>748.6944837524196</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E13" t="n">
-        <v>578.9364800031568</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F13" t="n">
-        <v>402.229425964913</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G13" t="n">
-        <v>236.6381509907407</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111519</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460367</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2308.274771460367</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>2021.319263330797</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1749.292858917089</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1503.901104250501</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y13" t="n">
-        <v>1276.481433564609</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.680751987495</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397518</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3421.580588915377</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4249.890463748773</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4796.389249707368</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055759</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928798</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4357.509304245815</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3994.892354179641</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3590.036899590674</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3170.894436169985</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2762.608312469639</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580464</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412714</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>608.7923094427941</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935315</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111519</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111519</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.15641754123</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.276971119686</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.843970372791</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243221</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162925</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477034</v>
+        <v>1269.11098324232</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2525.22255580238</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.080082985803</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.170298160248</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318543</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.528123727751</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510149</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423108</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742889</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1329.965062700342</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2405.025028953201</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2405.025028953201</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2405.025028953201</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.204695523508</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356903</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315498</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068554</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252391</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.44832012543</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442446</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376273</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787306</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3359.808249987634</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2951.522126287287</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493061</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958594</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228131</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389747</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051586</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818287</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.205346548041</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>449.205346548041</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>449.205346548041</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>449.205346548041</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>449.205346548041</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>449.205346548041</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>949.0793854983024</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>776.5176739815273</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>610.63968118305</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>440.8816774337873</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>264.1746233955434</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860609</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251576</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.615237106071</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.003789281486</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2451.124342859941</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2172.691342113047</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1885.735833983477</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.709429569769</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1368.317674903181</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1140.89800421729</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5762,40 +5762,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5887,13 +5887,13 @@
         <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
         <v>267.852115244952</v>
@@ -5935,10 +5935,10 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
         <v>2176.368833962455</v>
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6069,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
         <v>267.852115244952</v>
@@ -6172,7 +6172,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
         <v>2454.80183470935</v>
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6306,7 +6306,7 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
         <v>1107.588885023173</v>
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6655,7 +6655,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
         <v>1617.386921419177</v>
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6786,13 +6786,13 @@
         <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
         <v>780.1951658309357</v>
@@ -6923,10 +6923,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883921</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716172</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731399</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>303.5569696238771</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>126.8499155856334</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303137</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759859</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7181,19 +7181,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7211,7 +7211,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7330,13 +7330,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
         <v>1341.292728955479</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2562.150454693626</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2316.271008272081</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2316.271008272081</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>2029.315500142511</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1757.289095728803</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.477670376324</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2527.052675911533</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.910203094957</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1653.000418269401</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.225673427696</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>791.358243836904</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>389.9604124601678</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8302579033837</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834416</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2445.078414194479</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410831</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981137</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814533</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773128</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526185</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710022</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4716.95432558306</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4457.732022900077</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4095.115072833903</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3690.259618244937</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.638370096788</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2953.352246396441</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218165</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584588</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909813</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223589</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015796</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1033.881239320095</v>
+        <v>838.7339540459399</v>
       </c>
       <c r="C43" t="n">
-        <v>861.3195278033201</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="D43" t="n">
-        <v>695.4415350048428</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E43" t="n">
-        <v>525.68353125558</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F43" t="n">
-        <v>354.6646927300207</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>189.0734177558484</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558484</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952136</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2695.655257138695</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2536.413888436691</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2290.534442015147</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2012.101441268252</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1725.145933138682</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1453.119528724974</v>
+        <v>1503.363998117406</v>
       </c>
       <c r="X43" t="n">
-        <v>1453.119528724974</v>
+        <v>1257.972243450819</v>
       </c>
       <c r="Y43" t="n">
-        <v>1225.699858039082</v>
+        <v>1030.552572764927</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2472.724095295529</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2034.581622478952</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.263962614635</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>96.73597668111518</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2481.810506693462</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>2481.810506693462</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3461.990173263768</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4290.300048097164</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4836.798834055759</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4753.146960239596</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4493.924657556612</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4131.307707490439</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3726.452252901472</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3307.309789480783</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2899.023665780436</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1175.794137292997</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>1003.232425776222</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>837.3544329777444</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>667.5964292284816</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>490.8893751902377</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>325.2981002160653</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064399</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289287</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2691.977765289287</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2677.839094654636</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2399.406093907741</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>2112.450585778171</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1840.424181364463</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1595.032426697876</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1367.612756011984</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,22 +8058,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>58.38468441396117</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741901</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.94960388475738</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>316.389926674475</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,16 +8614,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>309.6062697457111</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807277</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>804.1687139657103</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9717,22 +9717,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>-5.871232860595138e-13</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,16 +10434,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>314.2706063049986</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365288114</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11303,7 +11303,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>40.81776196807232</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>184.7831561774884</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2.446659489828857</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>84.63380825304883</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>185.1957776566194</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>102.9863699957346</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>178.3951296148068</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,13 +25597,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>2.446659489829642</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25691,7 +25691,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>89.61600311981414</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>5.631333357557679</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25846,10 +25846,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>47.91312667565469</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>49.73195639979848</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>229.4233680290249</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>461857.3685021984</v>
+        <v>463971.0889060777</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>461857.3685021984</v>
+        <v>464351.6689137319</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>442590.0152954045</v>
+        <v>461267.8196964595</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>442590.0152954046</v>
+        <v>461267.8196964595</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>448835.3908527461</v>
+        <v>461267.8196964595</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>455022.444139118</v>
+        <v>461267.8196964595</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>442590.0152954045</v>
+        <v>461267.8196964595</v>
       </c>
     </row>
   </sheetData>
@@ -26317,22 +26317,22 @@
         <v>482532.5879013677</v>
       </c>
       <c r="D2" t="n">
-        <v>482532.5879013677</v>
+        <v>482532.5879013676</v>
       </c>
       <c r="E2" t="n">
-        <v>454971.5081745088</v>
+        <v>474171.825723617</v>
       </c>
       <c r="F2" t="n">
-        <v>454971.5081745088</v>
+        <v>474171.8257236171</v>
       </c>
       <c r="G2" t="n">
-        <v>461391.5986380122</v>
+        <v>474171.825723617</v>
       </c>
       <c r="H2" t="n">
+        <v>474171.8257236171</v>
+      </c>
+      <c r="I2" t="n">
         <v>474171.825723617</v>
-      </c>
-      <c r="I2" t="n">
-        <v>474171.8257236169</v>
       </c>
       <c r="J2" t="n">
         <v>474171.825723617</v>
@@ -26347,13 +26347,13 @@
         <v>474171.825723617</v>
       </c>
       <c r="N2" t="n">
+        <v>474171.8257236169</v>
+      </c>
+      <c r="O2" t="n">
         <v>474171.825723617</v>
       </c>
-      <c r="O2" t="n">
-        <v>467751.7352601134</v>
-      </c>
       <c r="P2" t="n">
-        <v>454971.5081745087</v>
+        <v>474171.8257236169</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501615</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998278</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850504</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996328</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877251</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622321</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.2398651109</v>
+        <v>175300.239865111</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>130243.4307963243</v>
       </c>
       <c r="D4" t="n">
-        <v>175300.2398651109</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="E4" t="n">
-        <v>13668.38414064833</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="F4" t="n">
-        <v>13668.38414064833</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="G4" t="n">
-        <v>13861.25833407853</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="H4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049259</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26454,10 +26454,10 @@
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>14052.33137706244</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="P4" t="n">
-        <v>13668.38414064833</v>
+        <v>14245.20557049264</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800258</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764753</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764753</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024202</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26506,10 @@
         <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.236083198</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>105616.2592393245</v>
       </c>
       <c r="C6" t="n">
-        <v>247807.5598990344</v>
+        <v>213745.1754020246</v>
       </c>
       <c r="D6" t="n">
-        <v>247807.5598990344</v>
+        <v>274661.6145644919</v>
       </c>
       <c r="E6" t="n">
-        <v>133428.7597341755</v>
+        <v>199830.0479868994</v>
       </c>
       <c r="F6" t="n">
-        <v>367783.7817562129</v>
+        <v>382185.1572079493</v>
       </c>
       <c r="G6" t="n">
-        <v>366277.7844608412</v>
+        <v>382185.1572079492</v>
       </c>
       <c r="H6" t="n">
-        <v>369805.6265673686</v>
+        <v>382185.1572079493</v>
       </c>
       <c r="I6" t="n">
-        <v>382208.3815473318</v>
+        <v>382185.1572079492</v>
       </c>
       <c r="J6" t="n">
-        <v>271193.9162023416</v>
+        <v>271170.691862959</v>
       </c>
       <c r="K6" t="n">
-        <v>382208.3815473319</v>
+        <v>329139.3025691767</v>
       </c>
       <c r="L6" t="n">
-        <v>382208.3815473319</v>
+        <v>372792.8554813269</v>
       </c>
       <c r="M6" t="n">
-        <v>186607.2022642642</v>
+        <v>229984.9862699615</v>
       </c>
       <c r="N6" t="n">
-        <v>382208.3815473319</v>
+        <v>382185.1572079491</v>
       </c>
       <c r="O6" t="n">
-        <v>377385.167799853</v>
+        <v>382185.1572079491</v>
       </c>
       <c r="P6" t="n">
-        <v>367783.7817562128</v>
+        <v>382185.1572079491</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267139</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631546</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938355</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760646</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938355</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760646</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,16 +27379,16 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>274.2778368376561</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>72.71868052833514</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -27597,13 +27597,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>92.47995995887806</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>15.5587197492369</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>348.496819720291</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>9.680258733946403</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27780,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -27828,13 +27828,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>108.817013338252</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>114.3199687789052</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>113.7278999628231</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27916,7 +27916,7 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>309.287684757228</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>63.43016517136708</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>261.1767494089935</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,22 +34778,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>58.38468441396117</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741901</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.94960388475738</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>316.389926674475</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>309.6062697457111</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -35419,7 +35419,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,13 +35647,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807277</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,7 +35811,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35884,7 +35884,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>804.1687139657103</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35902,7 +35902,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157514</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,7 +36048,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>-2.647518703460994e-13</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37236,10 +37236,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>314.2706063049986</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908054</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37707,7 +37707,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -37780,16 +37780,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365288114</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,13 +37944,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,13 +38017,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>40.81776196807232</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,13 +38181,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
